--- a/app/user_data.xlsx
+++ b/app/user_data.xlsx
@@ -14,21 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="52" count="52">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27" count="27">
   <x:si>
     <x:t>board_idx</x:t>
   </x:si>
   <x:si>
+    <x:t>uid</x:t>
+  </x:si>
+  <x:si>
     <x:t>userid</x:t>
   </x:si>
   <x:si>
     <x:t>reg_no</x:t>
   </x:si>
   <x:si>
-    <x:t>password</x:t>
-  </x:si>
-  <x:si>
-    <x:t>name</x:t>
+    <x:t>userpw</x:t>
+  </x:si>
+  <x:si>
+    <x:t>user_name</x:t>
   </x:si>
   <x:si>
     <x:t>user_role</x:t>
@@ -55,6 +58,12 @@
     <x:t>salt</x:t>
   </x:si>
   <x:si>
+    <x:t>fig</x:t>
+  </x:si>
+  <x:si>
+    <x:t>token_temp</x:t>
+  </x:si>
+  <x:si>
     <x:t>del_chk</x:t>
   </x:si>
   <x:si>
@@ -64,112 +73,28 @@
     <x:t>upd_date</x:t>
   </x:si>
   <x:si>
-    <x:t>admin3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>W24xBoKLQLA8di1Je0GcRZofp5fwNV1JJyX+jQarPAthDRwbDve2eF/XMso0GUFoGWZ4O4Elvf4JdgikbNAjOOSm/8gsLL87FDtEQtcyHLiL+4DytjwMbR0khI2m6u5Zb2r4PalpdbZotclGFWecLVK0uLEGU6AE7HdN+9aFOhw=</x:t>
-  </x:si>
-  <x:si>
-    <x:t>adad</x:t>
+    <x:t>3d06c817-d8ee-43be-be7b-226c0a4d6695</x:t>
+  </x:si>
+  <x:si>
+    <x:t>admin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NNNq1ZZBr3kfAIhMCxsxAn7LWe73aPjZEblZHtFPn0DNysXK8qGUXBewTNhkFzeaaBmS0qi2sWws89Ra/iTNjaQrZjIzkRswFLOy5qhOGWa6CKujexk8L/Yv07wMTGRF2ZTK8301Z5QLqawDWjTgt5hyUtabSK0kmS06+s1VAHg=</x:t>
   </x:si>
   <x:si>
     <x:t>0</x:t>
   </x:si>
   <x:si>
-    <x:t>2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>04</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ASDF</x:t>
-  </x:si>
-  <x:si>
-    <x:t>A784qnHmTkOSz3o9MWQ+xtqVpTMDK45/1AKBDK6tI/CnXXSozMb65qo+7b9Qlr9F6DKImVhCbHyD4zZ6e0D+0w==</x:t>
+    <x:t>yFfmKDozNt6TLMf+9tOni7zbrnqTOZqZWmF1i57q2rNMS5pMlxqAVdiJwPyVWBDKYT5G6wa4V389/tsSS/Ydeg==</x:t>
   </x:si>
   <x:si>
     <x:t>N</x:t>
   </x:si>
   <x:si>
-    <x:t>Fri Feb 10 2023 16:04:10 GMT+0900 (대한민국 표준시)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Wed Feb 22 2023 18:05:35 GMT+0900 (대한민국 표준시)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>adsf</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FkU3jU/ugJWuliMXhaSO4uk6SCkkcmaBJ4VL6leXEJPvRuz3oQqVwQ6uBorYQ+/qgYUg0L/jXFUY3BizGRFPa/nbLZTjGid1UB0DTTNuoQ2s/a3rQ+7lzO6IP3l6g3/RW/Fi8XA3ww/LkuUNRySBY0Czp13Mbs9gTEYhEGZc34c=</x:t>
-  </x:si>
-  <x:si>
-    <x:t>admin</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>undefined</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fqf+cY4/9zZkm7bUtqmtJXxEXh1DXZjhqT6QrY0FiiGCoEaiM48FibHJJOo7WdaUUTw0YDm+RFF6gBRN7RZh4Q==</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Wed Feb 15 2023 16:12:59 GMT+0900 (대한민국 표준시)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Wed Feb 22 2023 17:32:11 GMT+0900 (대한민국 표준시)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>fadsfas</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MoKrEgpmBb6i3epmLLBYcFGthg6RW/Dxm/va6TM3qWweiYlxf4I8CWTdEwZ5u3nKfBX7EscI6YIrGcv55HEcFED28nl60rj9Uski/5k08TQTe2irC8phxgMPldS0h6rBR3yyRfNXbgqYHfQSRDz4LwVsrtNK8BXGC0OC/SSudY8=</x:t>
-  </x:si>
-  <x:si>
-    <x:t>asdfs</x:t>
-  </x:si>
-  <x:si>
-    <x:t>nhpFvbITp+ZMwaFp6peoKD7KeRlsMhW/lafh0tYcF1/n13sMsHjetKFPe4AHFMJYTTaLz4nmtOjkUWvdCOI+jA==</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Wed Feb 15 2023 16:13:17 GMT+0900 (대한민국 표준시)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fri Feb 24 2023 15:56:18 GMT+0900 (대한민국 표준시)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>asdfasdf</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MgghJVh8qhZsLG0Q9OM84F2TZ32DV4wnMPYE8tFyCpTdVoeWWv/7KFpIHyS1FWe4FGXZQt5MTtvCwSZFZFTf9RMClIgbfpIvdL9peIUCah7XEo01/ij3jpZc5y1X5v/zIqcPRsk+M1pZbwyEY6vAbtoRDyikmuk5D7fEwaD2y8Q=</x:t>
-  </x:si>
-  <x:si>
-    <x:t>asdf</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Glx4r6Jf2z2uRKATTVTDSepZR7rSLE1bjLTRLWs9u6OiMRcOFk3HMPwC3HupxLgs9irBiMO91nHmwjXNwhn+Hw==</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Wed Feb 15 2023 16:13:23 GMT+0900 (대한민국 표준시)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fri Feb 24 2023 15:56:32 GMT+0900 (대한민국 표준시)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NlKOsGgE3hD0KK/yH/5UDiNndYvNeKUSQZ96zRC4eVr9vcSnxNJ6bu+qYT/rnkVO0Zf7opE/nxP23fnIk9YmkBf7oQp6iFP2vm4QHylG32omF65wSM3qT59nNlBbicYfOK3acQm88ByYvmmYqcWp/hUxhOjm1kJg/RB6DKcKUOM=</x:t>
-  </x:si>
-  <x:si>
-    <x:t>t7nP/Po+BeDmpH2zS8d7f3UTi10i+TVUycLef+4cnYgQDFdcKYn5GhlioTmHMHk0ug7M2TNftymrKmsIAfmBsw==</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Wed Feb 22 2023 17:30:53 GMT+0900 (대한민국 표준시)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Wed Feb 22 2023 17:30:53 GMT+0900 (대한민국 표준시)</x:t>
+    <x:t>Wed Apr 19 2023 19:26:35 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Apr 19 2023 19:26:35 GMT+0900 (대한민국 표준시)</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -532,7 +457,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:16">
+    <x:row r="1" spans="1:19">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -581,240 +506,52 @@
       <x:c r="P1" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
+      <x:c r="Q1" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="R1" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="S1" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
     </x:row>
-    <x:row r="2" spans="1:16">
+    <x:row r="2" spans="1:19">
       <x:c r="A2" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="D2" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F2" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G2" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="H2" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="I2" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="J2" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="K2" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="L2" s="0" t="s">
+      <x:c r="N2" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="M2" s="0" t="s">
+      <x:c r="O2" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="Q2" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="N2" s="0" t="s">
+      <x:c r="R2" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="O2" s="0" t="s">
+      <x:c r="S2" s="0" t="s">
         <x:v>26</x:v>
-      </x:c>
-      <x:c r="P2" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:16">
-      <x:c r="A3" s="0" t="n">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="B3" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="D3" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="E3" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="F3" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="G3" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="H3" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="I3" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="J3" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="K3" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="L3" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="M3" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="N3" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="O3" s="0" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="P3" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:16">
-      <x:c r="A4" s="0" t="n">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="B4" s="0" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="D4" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="E4" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="F4" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="G4" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="H4" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="I4" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="J4" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="K4" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="L4" s="0" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="M4" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="N4" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="O4" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="P4" s="0" t="s">
-        <x:v>41</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:16">
-      <x:c r="A5" s="0" t="n">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="B5" s="0" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="D5" s="0" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="E5" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="F5" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="G5" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="H5" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="I5" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="J5" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="K5" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="L5" s="0" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="M5" s="0" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="N5" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="O5" s="0" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="P5" s="0" t="s">
-        <x:v>47</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:16">
-      <x:c r="A6" s="0" t="n">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="B6" s="0" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="D6" s="0" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="E6" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="F6" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="G6" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="H6" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="I6" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="J6" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="K6" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="L6" s="0" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="M6" s="0" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="N6" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="O6" s="0" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="P6" s="0" t="s">
-        <x:v>51</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/app/user_data.xlsx
+++ b/app/user_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27" count="27">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="64" count="64">
   <x:si>
     <x:t>board_idx</x:t>
   </x:si>
@@ -95,6 +95,117 @@
   </x:si>
   <x:si>
     <x:t>Wed Apr 19 2023 19:26:35 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>37d43b9e-cef5-4401-9aa4-8714cdc4492c</x:t>
+  </x:si>
+  <x:si>
+    <x:t>asd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MmW28BI/j19DKBT+cMe6hzpjI2D3cCyU63EN2iKIEG7QQCNWRA9g/ZX2++U/jdoC5+qmAZH0SnbMFGmCC6JlFDJ2kkWFdYtHAXlHcac8FGOCsqapjcSw7i5VWuRCanEBlgP3iAJUes223HqpM6lt1l7rbJ3Ca48aK58l2mzEgKk=</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>asdf</x:t>
+  </x:si>
+  <x:si>
+    <x:t>hixpbHtjJh6tp1Qj4us7Mmwk5/lX9/AsH84G+btYkkwU1kxWNeVagyMXOdSodwNNK0SWCcsSP9s9JQetDfeepQ==</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sun Apr 23 2023 01:24:39 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sun Apr 23 2023 01:24:39 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>d8ffd4ac-8011-49d9-8c30-c1e3dac86b44</x:t>
+  </x:si>
+  <x:si>
+    <x:t>asdd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>McFakFWyzypT6Urr337J/v4Smt0R2gqXyyVt+ceI4nDrCNkzgSc5lfCThf0jS2/O8nxDDZYxnNYbncMvVmPkZCApD6q4XGi0MNd4nMcsR9r5AmJ2aST1ibHQco68skEiSpEHrxOielDe7e0BK3fiT1XnGX2G792vzruarp4icHQ=</x:t>
+  </x:si>
+  <x:si>
+    <x:t>asdfs</x:t>
+  </x:si>
+  <x:si>
+    <x:t>OqXdifcLn9dZe+upWtj+k/5cA76WcvGnYGEdnBKW1iEmze9NSROjo1JC/WSZ9OeoHoqpU56+15ljuciYDqksEQ==</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sun Apr 23 2023 01:24:59 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sun Apr 23 2023 01:24:59 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ab121b7f-62a6-4c2d-91cd-58b8a2a69d19</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sadf</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EGB/tkxFtrstGznZCd7mC6k7G3qLcbR+DWS6OpibK/jlAoFNGSrcQtPHMtvczp/jaAX71MCZUBYXx/BU/W1w3yH2NZhfO5pNt2diF6knOtG6MYrqICjgDm04MlBOVUXMYEtNIQPiSL4uA96LEvuecLkQyp/J+sBjCgfKPqFG6XE=</x:t>
+  </x:si>
+  <x:si>
+    <x:t>admin2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>asdfsa</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mqv8hkGad8zIxtmkJMrWrjcgCD2UNaBpfKUAi8roSX1Q6DuN58qJtwm+mvt33JwQt4QFmZJUJS2SOr2jFyD2jA==</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sun Apr 23 2023 01:25:10 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sun Apr 23 2023 01:25:10 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>45af6bda-8c6f-4755-bd31-fef6862a875f</x:t>
+  </x:si>
+  <x:si>
+    <x:t>admin123</x:t>
+  </x:si>
+  <x:si>
+    <x:t>gEjYCMXEGGL3gWaf+YL5ZJV0vY+TwO47DN6wxv883QVrEgvP3lFGq1RUTP8n5vu5q5v5dE/EX/3ZmrFk63+QQ2i4u7Qwc7xGhRg31yjnLEST5GEOrtnj0m0XFaC8523BMSr4/8p9TUzKpRcsTUeYW6CEBYEqp0YanIOyh7Ve2AU=</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DSFDSF</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ejq6li6IkXM/VRgWqLJtX9/tKSv4/G3ObAxsgme7IlVRUf5AJJ7ku9rnKbLW0BcVs2vXx8n11bKqimj7dIcaBw==</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tue May 02 2023 19:41:56 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tue May 02 2023 19:41:56 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>37d02939-7bb6-4218-bf21-0349445ab6d2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>asdf!@#!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UIoz7d3K80FhMMpJlbLWbZ+kUbEgg/q7HwglBUqUioQ8Qgaqu2YiKq8Ojlce5B5M8oRmIiUWW7caiZhEHcvODl6XyAGEeoEgcwGK4P9vHbrcEwOMsrm6eL7rSbNOpaU1HfU3VNGVyoyWqDilMKDaYhjBX/3UMFBM7z1d48YZDsk=</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ㅁㄴㅇㄹ!@#</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5/VPp/35+y5nY0f69QKcigO6Z3O8O4gmf3CRjqaHDjv4c97ruBeW56Ip/zKnPuQvcL5qxRt2JhiFbcbAXdmQ+Q==</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fri May 05 2023 14:16:49 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fri May 05 2023 14:16:49 GMT+0900 (대한민국 표준시)</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -554,6 +665,271 @@
         <x:v>26</x:v>
       </x:c>
     </x:row>
+    <x:row r="3" spans="1:19">
+      <x:c r="A3" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="E3" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="F3" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G3" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="H3" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="I3" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="J3" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="K3" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="L3" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="M3" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="N3" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="O3" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="Q3" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="R3" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="S3" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:19">
+      <x:c r="A4" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="E4" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="F4" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G4" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="H4" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="I4" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="J4" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="K4" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="L4" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="M4" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="N4" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="O4" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="Q4" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="R4" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="S4" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:19">
+      <x:c r="A5" s="0" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="E5" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="F5" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="G5" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="H5" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="I5" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="J5" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="K5" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="L5" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="M5" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="N5" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="O5" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="Q5" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="R5" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="S5" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:19">
+      <x:c r="A6" s="0" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="E6" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="F6" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="G6" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="H6" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="I6" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="J6" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="K6" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="L6" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="M6" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="N6" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="O6" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="Q6" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="R6" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="S6" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:19">
+      <x:c r="A7" s="0" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="E7" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="F7" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="G7" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="H7" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="I7" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="J7" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="K7" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="L7" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="M7" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="N7" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="O7" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="Q7" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="R7" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="S7" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/app/user_data.xlsx
+++ b/app/user_data.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="64" count="64">
-  <x:si>
-    <x:t>board_idx</x:t>
-  </x:si>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32" count="32">
   <x:si>
     <x:t>uid</x:t>
   </x:si>
@@ -28,9 +25,6 @@
     <x:t>reg_no</x:t>
   </x:si>
   <x:si>
-    <x:t>userpw</x:t>
-  </x:si>
-  <x:si>
     <x:t>user_name</x:t>
   </x:si>
   <x:si>
@@ -55,157 +49,67 @@
     <x:t>user_email</x:t>
   </x:si>
   <x:si>
-    <x:t>salt</x:t>
-  </x:si>
-  <x:si>
     <x:t>fig</x:t>
   </x:si>
   <x:si>
-    <x:t>token_temp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>del_chk</x:t>
-  </x:si>
-  <x:si>
     <x:t>ins_date</x:t>
   </x:si>
   <x:si>
     <x:t>upd_date</x:t>
   </x:si>
   <x:si>
-    <x:t>3d06c817-d8ee-43be-be7b-226c0a4d6695</x:t>
+    <x:t>1d456e5f-f2f8-4aae-b072-4f626e853757</x:t>
   </x:si>
   <x:si>
     <x:t>admin</x:t>
   </x:si>
   <x:si>
-    <x:t>NNNq1ZZBr3kfAIhMCxsxAn7LWe73aPjZEblZHtFPn0DNysXK8qGUXBewTNhkFzeaaBmS0qi2sWws89Ra/iTNjaQrZjIzkRswFLOy5qhOGWa6CKujexk8L/Yv07wMTGRF2ZTK8301Z5QLqawDWjTgt5hyUtabSK0kmS06+s1VAHg=</x:t>
+    <x:t>asdf</x:t>
   </x:si>
   <x:si>
     <x:t>0</x:t>
   </x:si>
   <x:si>
-    <x:t>yFfmKDozNt6TLMf+9tOni7zbrnqTOZqZWmF1i57q2rNMS5pMlxqAVdiJwPyVWBDKYT5G6wa4V389/tsSS/Ydeg==</x:t>
-  </x:si>
-  <x:si>
-    <x:t>N</x:t>
+    <x:t>00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28</x:t>
   </x:si>
   <x:si>
     <x:t>Wed Apr 19 2023 19:26:35 GMT+0900 (대한민국 표준시)</x:t>
   </x:si>
   <x:si>
-    <x:t>Wed Apr 19 2023 19:26:35 GMT+0900 (대한민국 표준시)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>37d43b9e-cef5-4401-9aa4-8714cdc4492c</x:t>
-  </x:si>
-  <x:si>
-    <x:t>asd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MmW28BI/j19DKBT+cMe6hzpjI2D3cCyU63EN2iKIEG7QQCNWRA9g/ZX2++U/jdoC5+qmAZH0SnbMFGmCC6JlFDJ2kkWFdYtHAXlHcac8FGOCsqapjcSw7i5VWuRCanEBlgP3iAJUes223HqpM6lt1l7rbJ3Ca48aK58l2mzEgKk=</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>asdf</x:t>
-  </x:si>
-  <x:si>
-    <x:t>hixpbHtjJh6tp1Qj4us7Mmwk5/lX9/AsH84G+btYkkwU1kxWNeVagyMXOdSodwNNK0SWCcsSP9s9JQetDfeepQ==</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sun Apr 23 2023 01:24:39 GMT+0900 (대한민국 표준시)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sun Apr 23 2023 01:24:39 GMT+0900 (대한민국 표준시)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>d8ffd4ac-8011-49d9-8c30-c1e3dac86b44</x:t>
-  </x:si>
-  <x:si>
-    <x:t>asdd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>McFakFWyzypT6Urr337J/v4Smt0R2gqXyyVt+ceI4nDrCNkzgSc5lfCThf0jS2/O8nxDDZYxnNYbncMvVmPkZCApD6q4XGi0MNd4nMcsR9r5AmJ2aST1ibHQco68skEiSpEHrxOielDe7e0BK3fiT1XnGX2G792vzruarp4icHQ=</x:t>
-  </x:si>
-  <x:si>
-    <x:t>asdfs</x:t>
-  </x:si>
-  <x:si>
-    <x:t>OqXdifcLn9dZe+upWtj+k/5cA76WcvGnYGEdnBKW1iEmze9NSROjo1JC/WSZ9OeoHoqpU56+15ljuciYDqksEQ==</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sun Apr 23 2023 01:24:59 GMT+0900 (대한민국 표준시)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sun Apr 23 2023 01:24:59 GMT+0900 (대한민국 표준시)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ab121b7f-62a6-4c2d-91cd-58b8a2a69d19</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sadf</x:t>
-  </x:si>
-  <x:si>
-    <x:t>EGB/tkxFtrstGznZCd7mC6k7G3qLcbR+DWS6OpibK/jlAoFNGSrcQtPHMtvczp/jaAX71MCZUBYXx/BU/W1w3yH2NZhfO5pNt2diF6knOtG6MYrqICjgDm04MlBOVUXMYEtNIQPiSL4uA96LEvuecLkQyp/J+sBjCgfKPqFG6XE=</x:t>
-  </x:si>
-  <x:si>
-    <x:t>admin2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>asdfsa</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mqv8hkGad8zIxtmkJMrWrjcgCD2UNaBpfKUAi8roSX1Q6DuN58qJtwm+mvt33JwQt4QFmZJUJS2SOr2jFyD2jA==</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sun Apr 23 2023 01:25:10 GMT+0900 (대한민국 표준시)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sun Apr 23 2023 01:25:10 GMT+0900 (대한민국 표준시)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>45af6bda-8c6f-4755-bd31-fef6862a875f</x:t>
-  </x:si>
-  <x:si>
-    <x:t>admin123</x:t>
-  </x:si>
-  <x:si>
-    <x:t>gEjYCMXEGGL3gWaf+YL5ZJV0vY+TwO47DN6wxv883QVrEgvP3lFGq1RUTP8n5vu5q5v5dE/EX/3ZmrFk63+QQ2i4u7Qwc7xGhRg31yjnLEST5GEOrtnj0m0XFaC8523BMSr4/8p9TUzKpRcsTUeYW6CEBYEqp0YanIOyh7Ve2AU=</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DSFDSF</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ejq6li6IkXM/VRgWqLJtX9/tKSv4/G3ObAxsgme7IlVRUf5AJJ7ku9rnKbLW0BcVs2vXx8n11bKqimj7dIcaBw==</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tue May 02 2023 19:41:56 GMT+0900 (대한민국 표준시)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tue May 02 2023 19:41:56 GMT+0900 (대한민국 표준시)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>37d02939-7bb6-4218-bf21-0349445ab6d2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>asdf!@#!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>UIoz7d3K80FhMMpJlbLWbZ+kUbEgg/q7HwglBUqUioQ8Qgaqu2YiKq8Ojlce5B5M8oRmIiUWW7caiZhEHcvODl6XyAGEeoEgcwGK4P9vHbrcEwOMsrm6eL7rSbNOpaU1HfU3VNGVyoyWqDilMKDaYhjBX/3UMFBM7z1d48YZDsk=</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ㅁㄴㅇㄹ!@#</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5/VPp/35+y5nY0f69QKcigO6Z3O8O4gmf3CRjqaHDjv4c97ruBeW56Ip/zKnPuQvcL5qxRt2JhiFbcbAXdmQ+Q==</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fri May 05 2023 14:16:49 GMT+0900 (대한민국 표준시)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fri May 05 2023 14:16:49 GMT+0900 (대한민국 표준시)</x:t>
+    <x:t>Thu Jun 29 2023 13:57:22 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7f06c817-d8ee-43be-be7b-226c0a4d3432</x:t>
+  </x:si>
+  <x:si>
+    <x:t>admin3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Jul 10 2023 14:03:23 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Jul 10 2023 14:03:23 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8747faae-44c1-424e-9227-58824cd4fa5d</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1234</x:t>
+  </x:si>
+  <x:si>
+    <x:t>123</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Jul 12 2023 00:50:50 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Jul 12 2023 00:50:50 GMT+0900 (대한민국 표준시)</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -568,7 +472,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:19">
+    <x:row r="1" spans="1:14">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -611,323 +515,110 @@
       <x:c r="N1" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="O1" s="0" t="s">
+    </x:row>
+    <x:row r="2" spans="1:14">
+      <x:c r="A2" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="P1" s="0" t="s">
+      <x:c r="B2" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="Q1" s="0" t="s">
+      <x:c r="D2" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="R1" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="S1" s="0" t="s">
+      <x:c r="E2" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F2" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G2" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="H2" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="J2" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
+      <x:c r="K2" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="L2" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="M2" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="N2" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
     </x:row>
-    <x:row r="2" spans="1:19">
-      <x:c r="A2" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="B2" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="C2" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="E2" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="F2" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="G2" s="0" t="s">
+    <x:row r="3" spans="1:14">
+      <x:c r="A3" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="H2" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="N2" s="0" t="s">
+      <x:c r="B3" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="O2" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="Q2" s="0" t="s">
+      <x:c r="D3" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E3" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="R2" s="0" t="s">
+      <x:c r="F3" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="L3" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="M3" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="S2" s="0" t="s">
+      <x:c r="N3" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:19">
-      <x:c r="A3" s="0" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B3" s="0" t="s">
+    <x:row r="4" spans="1:14">
+      <x:c r="A4" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="C3" s="0" t="s">
+      <x:c r="B4" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="E3" s="0" t="s">
+      <x:c r="D4" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E4" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F4" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G4" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="H4" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="I4" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="J4" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="K4" s="0" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="F3" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="G3" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="H3" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="I3" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="J3" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="K3" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L3" s="0" t="s">
+      <x:c r="L4" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="M4" s="0" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="M3" s="0" t="s">
+      <x:c r="N4" s="0" t="s">
         <x:v>31</x:v>
-      </x:c>
-      <x:c r="N3" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="O3" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="Q3" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="R3" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="S3" s="0" t="s">
-        <x:v>34</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:19">
-      <x:c r="A4" s="0" t="n">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B4" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="C4" s="0" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="E4" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="F4" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="G4" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="H4" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="I4" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="J4" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="K4" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L4" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="M4" s="0" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="N4" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="O4" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="Q4" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="R4" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="S4" s="0" t="s">
-        <x:v>41</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:19">
-      <x:c r="A5" s="0" t="n">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B5" s="0" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="C5" s="0" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="E5" s="0" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="F5" s="0" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="G5" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="H5" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="I5" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="J5" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="K5" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L5" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="M5" s="0" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="N5" s="0" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="O5" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="Q5" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="R5" s="0" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="S5" s="0" t="s">
-        <x:v>49</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:19">
-      <x:c r="A6" s="0" t="n">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="B6" s="0" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="C6" s="0" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="E6" s="0" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="F6" s="0" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="G6" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="H6" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="I6" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="J6" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="K6" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L6" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="M6" s="0" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="N6" s="0" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="O6" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="Q6" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="R6" s="0" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="S6" s="0" t="s">
-        <x:v>56</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:19">
-      <x:c r="A7" s="0" t="n">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="B7" s="0" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="C7" s="0" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="E7" s="0" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="F7" s="0" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="G7" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="H7" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="I7" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="J7" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="K7" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L7" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="M7" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="N7" s="0" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="O7" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="Q7" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="R7" s="0" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="S7" s="0" t="s">
-        <x:v>63</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/app/user_data.xlsx
+++ b/app/user_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32" count="32">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45" count="45">
   <x:si>
     <x:t>uid</x:t>
   </x:si>
@@ -82,34 +82,73 @@
     <x:t>Thu Jun 29 2023 13:57:22 GMT+0900 (대한민국 표준시)</x:t>
   </x:si>
   <x:si>
+    <x:t>c050f844-aaa2-45d3-9434-d1304fcc98d1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>admin3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Jul 10 2023 14:03:23 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Jul 17 2023 16:39:00 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8747faae-44c1-424e-9227-58824cd4fa5d</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1234</x:t>
+  </x:si>
+  <x:si>
+    <x:t>123</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Jul 12 2023 00:50:50 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Jul 12 2023 00:50:50 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>b40d5942-1afb-4afb-a950-9e1f72b5f173</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tigerwuy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>박준우</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tigerwuy@naver.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Jul 17 2023 13:16:54 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Jul 17 2023 13:16:54 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
     <x:t>7f06c817-d8ee-43be-be7b-226c0a4d3432</x:t>
   </x:si>
   <x:si>
-    <x:t>admin3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Jul 10 2023 14:03:23 GMT+0900 (대한민국 표준시)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Jul 10 2023 14:03:23 GMT+0900 (대한민국 표준시)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8747faae-44c1-424e-9227-58824cd4fa5d</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1234</x:t>
-  </x:si>
-  <x:si>
-    <x:t>123</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Wed Jul 12 2023 00:50:50 GMT+0900 (대한민국 표준시)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Wed Jul 12 2023 00:50:50 GMT+0900 (대한민국 표준시)</x:t>
+    <x:t>admin2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Jul 19 2023 02:08:38 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Jul 19 2023 02:08:38 GMT+0900 (대한민국 표준시)</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -565,27 +604,39 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="E3" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F3" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="F3" s="0" t="s">
-        <x:v>17</x:v>
+      <x:c r="G3" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="H3" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="J3" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="K3" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="L3" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="M3" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="N3" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:14">
       <x:c r="A4" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
         <x:v>23</x:v>
@@ -609,16 +660,83 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="K4" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="L4" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="M4" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="N4" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>34</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:14">
+      <x:c r="A5" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E5" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F5" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G5" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="H5" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="I5" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="J5" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="K5" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="L5" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="M5" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="N5" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:14">
+      <x:c r="A6" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E6" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="F6" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="L6" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="M6" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="N6" s="0" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/app/user_data.xlsx
+++ b/app/user_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45" count="45">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20" count="20">
   <x:si>
     <x:t>uid</x:t>
   </x:si>
@@ -58,97 +58,22 @@
     <x:t>upd_date</x:t>
   </x:si>
   <x:si>
-    <x:t>1d456e5f-f2f8-4aae-b072-4f626e853757</x:t>
+    <x:t>7f06c817-d8ee-43be-be7b-226c0a4d3432</x:t>
   </x:si>
   <x:si>
     <x:t>admin</x:t>
   </x:si>
   <x:si>
-    <x:t>asdf</x:t>
+    <x:t>1</x:t>
   </x:si>
   <x:si>
     <x:t>0</x:t>
   </x:si>
   <x:si>
-    <x:t>00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>28</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Wed Apr 19 2023 19:26:35 GMT+0900 (대한민국 표준시)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Thu Jun 29 2023 13:57:22 GMT+0900 (대한민국 표준시)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>c050f844-aaa2-45d3-9434-d1304fcc98d1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>admin3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>04</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Jul 10 2023 14:03:23 GMT+0900 (대한민국 표준시)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Jul 17 2023 16:39:00 GMT+0900 (대한민국 표준시)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8747faae-44c1-424e-9227-58824cd4fa5d</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1234</x:t>
-  </x:si>
-  <x:si>
-    <x:t>123</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Wed Jul 12 2023 00:50:50 GMT+0900 (대한민국 표준시)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Wed Jul 12 2023 00:50:50 GMT+0900 (대한민국 표준시)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>b40d5942-1afb-4afb-a950-9e1f72b5f173</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tigerwuy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>박준우</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tigerwuy@naver.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Jul 17 2023 13:16:54 GMT+0900 (대한민국 표준시)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Jul 17 2023 13:16:54 GMT+0900 (대한민국 표준시)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7f06c817-d8ee-43be-be7b-226c0a4d3432</x:t>
-  </x:si>
-  <x:si>
-    <x:t>admin2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Wed Jul 19 2023 02:08:38 GMT+0900 (대한민국 표준시)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Wed Jul 19 2023 02:08:38 GMT+0900 (대한민국 표준시)</x:t>
+    <x:t>Mon Jul 24 2023 02:34:02 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Jul 24 2023 02:34:02 GMT+0900 (대한민국 표준시)</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -563,180 +488,22 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s">
         <x:v>16</x:v>
-      </x:c>
-      <x:c r="E2" s="0" t="s">
-        <x:v>17</x:v>
       </x:c>
       <x:c r="F2" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="G2" s="0" t="s">
+      <x:c r="L2" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="H2" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="J2" s="0" t="s">
+      <x:c r="M2" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="K2" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="L2" s="0" t="s">
+      <x:c r="N2" s="0" t="s">
         <x:v>19</x:v>
-      </x:c>
-      <x:c r="M2" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="N2" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:14">
-      <x:c r="A3" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="B3" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="D3" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="E3" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="F3" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="G3" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="H3" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="J3" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="K3" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="L3" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="M3" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="N3" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:14">
-      <x:c r="A4" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="B4" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="D4" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="E4" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="F4" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="G4" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="H4" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="I4" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="J4" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="K4" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="L4" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="M4" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="N4" s="0" t="s">
-        <x:v>34</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:14">
-      <x:c r="A5" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="B5" s="0" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="D5" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="E5" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="F5" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="G5" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="H5" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="I5" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="J5" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="K5" s="0" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="L5" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="M5" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="N5" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:14">
-      <x:c r="A6" s="0" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="B6" s="0" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="D6" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="E6" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="F6" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="L6" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="M6" s="0" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="N6" s="0" t="s">
-        <x:v>44</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
